--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2413.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2413.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.041884267858225</v>
+        <v>1.258919239044189</v>
       </c>
       <c r="B1">
-        <v>2.124175757795912</v>
+        <v>1.792936205863953</v>
       </c>
       <c r="C1">
-        <v>9.484395658232422</v>
+        <v>4.126768112182617</v>
       </c>
       <c r="D1">
-        <v>1.919707262382674</v>
+        <v>3.329569101333618</v>
       </c>
       <c r="E1">
-        <v>0.9989858703007454</v>
+        <v>1.156816244125366</v>
       </c>
     </row>
   </sheetData>
